--- a/Data/Data_results_reg_Whole_Cond.xlsx
+++ b/Data/Data_results_reg_Whole_Cond.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R81"/>
+  <dimension ref="A1:AC81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,6 +519,61 @@
           <t>neg_mean_squared_error</t>
         </is>
       </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Modelcheck_meanMC</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Modelcheck_minMC</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Modelcheck_Q1MC</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Modelcheck_Q2MC</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Modelcheck_Q3MC</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Modelcheck_maxMC</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Modelcheck_CI_testscoreMC</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>r2MC</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Adj_r2MC</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>neg_mean_absolute_errorMC</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>neg_mean_squared_errorMC</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -589,6 +644,41 @@
       <c r="R2" t="n">
         <v>-16.88495726495727</v>
       </c>
+      <c r="S2" t="n">
+        <v>-0.242796321202587</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-5.380625000000001</v>
+      </c>
+      <c r="U2" t="n">
+        <v>-0.4188954838135603</v>
+      </c>
+      <c r="V2" t="n">
+        <v>-0.171798656697207</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.01563359057491231</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.6968421052631579</v>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>(-0.25070158985566937, -0.2348910525495046)</t>
+        </is>
+      </c>
+      <c r="Z2" t="n">
+        <v>-0.5505766181926187</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>5.781054491022496</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>-3.426174</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>-17.291882</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -659,6 +749,41 @@
       <c r="R3" t="n">
         <v>-17.02652136752137</v>
       </c>
+      <c r="S3" t="n">
+        <v>-0.2665456455601876</v>
+      </c>
+      <c r="T3" t="n">
+        <v>-8.814545454545453</v>
+      </c>
+      <c r="U3" t="n">
+        <v>-0.4366546780251885</v>
+      </c>
+      <c r="V3" t="n">
+        <v>-0.1871619094907078</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.01053000378000385</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.8595475113122173</v>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>(-0.2751213553984665, -0.2579699357219086)</t>
+        </is>
+      </c>
+      <c r="Z3" t="n">
+        <v>-0.5785537162628263</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>-0.6284290366303114</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>-3.479762</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>-17.4140204</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -729,6 +854,41 @@
       <c r="R4" t="n">
         <v>-29.16538461538461</v>
       </c>
+      <c r="S4" t="n">
+        <v>-1.322863175184288</v>
+      </c>
+      <c r="T4" t="n">
+        <v>-37.37704918032787</v>
+      </c>
+      <c r="U4" t="n">
+        <v>-1.767909421900993</v>
+      </c>
+      <c r="V4" t="n">
+        <v>-0.9269682070402983</v>
+      </c>
+      <c r="W4" t="n">
+        <v>-0.3093932353576832</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.9299097848716169</v>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>(-1.3579854012188082, -1.2877409491497671)</t>
+        </is>
+      </c>
+      <c r="Z4" t="n">
+        <v>-1.681638771852825</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>17.65720710445466</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>-4.00026</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>-27.71444</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -799,6 +959,41 @@
       <c r="R5" t="n">
         <v>-25.02307692307692</v>
       </c>
+      <c r="S5" t="n">
+        <v>-1.005054744191307</v>
+      </c>
+      <c r="T5" t="n">
+        <v>-29.42622950819673</v>
+      </c>
+      <c r="U5" t="n">
+        <v>-1.40035403050109</v>
+      </c>
+      <c r="V5" t="n">
+        <v>-0.6266260712254165</v>
+      </c>
+      <c r="W5" t="n">
+        <v>-0.0624275578257657</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.9348314606741573</v>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>(-1.0381487462552788, -0.9719607421273346)</t>
+        </is>
+      </c>
+      <c r="Z5" t="n">
+        <v>-1.292851175724064</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>-1.404303863286484</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>-3.51636</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>-23.63204</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -869,6 +1064,41 @@
       <c r="R6" t="n">
         <v>-16.2236152991453</v>
       </c>
+      <c r="S6" t="n">
+        <v>-0.1466361217727239</v>
+      </c>
+      <c r="T6" t="n">
+        <v>-3.217063934426229</v>
+      </c>
+      <c r="U6" t="n">
+        <v>-0.2457393690476951</v>
+      </c>
+      <c r="V6" t="n">
+        <v>-0.1064594722483291</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.005323503165348076</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.5754555000000001</v>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>(-0.15164934366614582, -0.14162289987930207)</t>
+        </is>
+      </c>
+      <c r="Z6" t="n">
+        <v>-0.4313217527948888</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>4.528878404346332</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>-3.2988007</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>-16.266174709</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -939,6 +1169,41 @@
       <c r="R7" t="n">
         <v>-14.58880848290598</v>
       </c>
+      <c r="S7" t="n">
+        <v>-0.06130005630150302</v>
+      </c>
+      <c r="T7" t="n">
+        <v>-5.459186885245902</v>
+      </c>
+      <c r="U7" t="n">
+        <v>-0.1986253180488298</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.00893036955502563</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.1825665876903274</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.7246514044943819</v>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>(-0.06921449322232351, -0.05338561938068252)</t>
+        </is>
+      </c>
+      <c r="Z7" t="n">
+        <v>-0.2821916933455758</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>-0.3065185634615737</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>-3.0483191</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>-14.507926021</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1009,6 +1274,41 @@
       <c r="R8" t="n">
         <v>-14.18086260493817</v>
       </c>
+      <c r="S8" t="n">
+        <v>0.007629529789290628</v>
+      </c>
+      <c r="T8" t="n">
+        <v>-1.506365542337277</v>
+      </c>
+      <c r="U8" t="n">
+        <v>-0.06545352793061993</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.03292614780144948</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.1084993994034001</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.7164160737825087</v>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>(0.0043460369654059255, 0.010913022613175331)</t>
+        </is>
+      </c>
+      <c r="Z8" t="n">
+        <v>-0.2120428245190999</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>2.226449657450549</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>-3.081450100430217</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>-14.46008202514611</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1079,6 +1379,41 @@
       <c r="R9" t="n">
         <v>-14.36321420908115</v>
       </c>
+      <c r="S9" t="n">
+        <v>-0.001001184646938259</v>
+      </c>
+      <c r="T9" t="n">
+        <v>-1.016984305956855</v>
+      </c>
+      <c r="U9" t="n">
+        <v>-0.03879292682865521</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.01134606729959176</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.04992121644112876</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.4734822278926136</v>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>(-0.002572490390889613, 0.0005701210970130944)</t>
+        </is>
+      </c>
+      <c r="Z9" t="n">
+        <v>-0.2213044754223367</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>-0.2403824474415037</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>-3.059827815539841</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>-14.59166977947778</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1149,6 +1484,41 @@
       <c r="R10" t="n">
         <v>-19.9476829645066</v>
       </c>
+      <c r="S10" t="n">
+        <v>0.02434384910655241</v>
+      </c>
+      <c r="T10" t="n">
+        <v>-0.3253724927634329</v>
+      </c>
+      <c r="U10" t="n">
+        <v>-0.009685461635452197</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.02693380627869507</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.05975884324173994</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.3678273618745457</v>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>(0.023235714770696855, 0.025451983442407972)</t>
+        </is>
+      </c>
+      <c r="Z10" t="n">
+        <v>-0.5375845896897263</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>5.644638191742126</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>-3.102632696591493</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>-20.22238873903417</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1219,6 +1589,41 @@
       <c r="R11" t="n">
         <v>-29.49251441540383</v>
       </c>
+      <c r="S11" t="n">
+        <v>0.0008007316737530428</v>
+      </c>
+      <c r="T11" t="n">
+        <v>-0.01057681375578312</v>
+      </c>
+      <c r="U11" t="n">
+        <v>-0.0004431237515098441</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.0007645757420085553</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.002015775294871208</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.01742569156198148</v>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>(0.000761625184169347, 0.0008398381633367385)</t>
+        </is>
+      </c>
+      <c r="Z11" t="n">
+        <v>-1.375339977226129</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>-1.493903768366312</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>-3.992061115065975</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>-29.50705510212205</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1290,6 +1695,41 @@
       <c r="R12" t="n">
         <v>-18.68977901284876</v>
       </c>
+      <c r="S12" t="n">
+        <v>-0.5688678581092652</v>
+      </c>
+      <c r="T12" t="n">
+        <v>-922.7090811258829</v>
+      </c>
+      <c r="U12" t="n">
+        <v>-0.4431800196987609</v>
+      </c>
+      <c r="V12" t="n">
+        <v>-0.1242315866534659</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.05507974079856756</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.8820098968228062</v>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>(-0.763932976173225, -0.37380274004530545)</t>
+        </is>
+      </c>
+      <c r="Z12" t="n">
+        <v>-0.8903850677071244</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>9.349043210924807</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>-3.395649912117099</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>-21.04413848434967</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1361,6 +1801,41 @@
       <c r="R13" t="n">
         <v>-15.29878151288331</v>
       </c>
+      <c r="S13" t="n">
+        <v>-0.2253457155489042</v>
+      </c>
+      <c r="T13" t="n">
+        <v>-171.3081358918311</v>
+      </c>
+      <c r="U13" t="n">
+        <v>-0.273695095295945</v>
+      </c>
+      <c r="V13" t="n">
+        <v>-0.05033082348303886</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.1068595652954035</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.8887687710735654</v>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>(-0.2704912283346795, -0.18020020276312887)</t>
+        </is>
+      </c>
+      <c r="Z13" t="n">
+        <v>-0.4788329068714404</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>-0.5201116057396682</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>-3.212528646133478</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>-16.92847212737079</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1431,6 +1906,41 @@
       <c r="R14" t="n">
         <v>-16.03457791564829</v>
       </c>
+      <c r="S14" t="n">
+        <v>0.01796139728547178</v>
+      </c>
+      <c r="T14" t="n">
+        <v>-1.117802658722467</v>
+      </c>
+      <c r="U14" t="n">
+        <v>-0.03108729857300058</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.03667694587337589</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.08551646078008676</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.7874121618406811</v>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>(0.015728941398039535, 0.020193853172904015)</t>
+        </is>
+      </c>
+      <c r="Z14" t="n">
+        <v>-0.2274813740648874</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>2.388554427681318</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>-2.90377762757445</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>-16.17412892318585</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1501,6 +2011,41 @@
       <c r="R15" t="n">
         <v>-15.64034086251453</v>
       </c>
+      <c r="S15" t="n">
+        <v>-0.003456788696575162</v>
+      </c>
+      <c r="T15" t="n">
+        <v>-0.9272361714203639</v>
+      </c>
+      <c r="U15" t="n">
+        <v>-0.01303774030568355</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.001946898991258827</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.01331507189262743</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0.5206459140955312</v>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>(-0.004187398783230018, -0.0027261786099203053)</t>
+        </is>
+      </c>
+      <c r="Z15" t="n">
+        <v>-0.2098211495326556</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>-0.2279091796647812</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>-2.932001685122087</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>-15.74909199752556</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1571,6 +2116,41 @@
       <c r="R16" t="n">
         <v>-54.0221136036829</v>
       </c>
+      <c r="S16" t="n">
+        <v>-3.663560358855181</v>
+      </c>
+      <c r="T16" t="n">
+        <v>-126.5252636369294</v>
+      </c>
+      <c r="U16" t="n">
+        <v>-4.414392124024732</v>
+      </c>
+      <c r="V16" t="n">
+        <v>-2.375483713092791</v>
+      </c>
+      <c r="W16" t="n">
+        <v>-1.160148983470519</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.8961737316906558</v>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>(-3.760784447654174, -3.5663362700561874)</t>
+        </is>
+      </c>
+      <c r="Z16" t="n">
+        <v>-4.331612604495992</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>45.48193234720791</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>-5.547909925888462</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>-51.25743173373921</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1641,6 +2221,41 @@
       <c r="R17" t="n">
         <v>-34.59634166501019</v>
       </c>
+      <c r="S17" t="n">
+        <v>-2.77890059250125</v>
+      </c>
+      <c r="T17" t="n">
+        <v>-98.48872854557699</v>
+      </c>
+      <c r="U17" t="n">
+        <v>-3.365371301171651</v>
+      </c>
+      <c r="V17" t="n">
+        <v>-1.693105009143237</v>
+      </c>
+      <c r="W17" t="n">
+        <v>-0.720819915878232</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0.8341859638277064</v>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>(-2.856057419772932, -2.7017437652295673)</t>
+        </is>
+      </c>
+      <c r="Z17" t="n">
+        <v>-3.304498930264141</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>-3.589369527700706</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>-4.972835311248724</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>-41.30084185076279</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1711,6 +2326,41 @@
       <c r="R18" t="n">
         <v>-0.2924444444444445</v>
       </c>
+      <c r="S18" t="n">
+        <v>-0.2469251603174604</v>
+      </c>
+      <c r="T18" t="n">
+        <v>-1.760000000000001</v>
+      </c>
+      <c r="U18" t="n">
+        <v>-0.4114285714285721</v>
+      </c>
+      <c r="V18" t="n">
+        <v>-0.2209523809523815</v>
+      </c>
+      <c r="W18" t="n">
+        <v>-0.05904761904761879</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0.5650000000000002</v>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>(-0.25223703908580086, -0.24161328154911985)</t>
+        </is>
+      </c>
+      <c r="Z18" t="n">
+        <v>-0.4291003333333335</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>4.505553500000001</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>-0.5093760000000001</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>-0.3028984</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1781,6 +2431,41 @@
       <c r="R19" t="n">
         <v>-0.2911965811965812</v>
       </c>
+      <c r="S19" t="n">
+        <v>-0.2242123965079365</v>
+      </c>
+      <c r="T19" t="n">
+        <v>-1.795555555555556</v>
+      </c>
+      <c r="U19" t="n">
+        <v>-0.4016000000000002</v>
+      </c>
+      <c r="V19" t="n">
+        <v>-0.2000000000000002</v>
+      </c>
+      <c r="W19" t="n">
+        <v>-0.02095238095238106</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.5775000000000003</v>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>(-0.22980430581590117, -0.21862048719997185)</t>
+        </is>
+      </c>
+      <c r="Z19" t="n">
+        <v>-0.3998064634920636</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>-0.4342725379310346</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>-0.499468</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>-0.2971792</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1851,6 +2536,41 @@
       <c r="R20" t="n">
         <v>-0.4826923076923076</v>
       </c>
+      <c r="S20" t="n">
+        <v>-0.8975301547619047</v>
+      </c>
+      <c r="T20" t="n">
+        <v>-4</v>
+      </c>
+      <c r="U20" t="n">
+        <v>-1.333333333333334</v>
+      </c>
+      <c r="V20" t="n">
+        <v>-0.9047619047619047</v>
+      </c>
+      <c r="W20" t="n">
+        <v>-0.3809523809523812</v>
+      </c>
+      <c r="X20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>(-0.9125167862049175, -0.8825435233188919)</t>
+        </is>
+      </c>
+      <c r="Z20" t="n">
+        <v>-1.146633134920635</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>12.03964791666667</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>-0.45134</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>-0.45134</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1921,6 +2641,41 @@
       <c r="R21" t="n">
         <v>-0.4752136752136751</v>
       </c>
+      <c r="S21" t="n">
+        <v>-0.8081093373015874</v>
+      </c>
+      <c r="T21" t="n">
+        <v>-4</v>
+      </c>
+      <c r="U21" t="n">
+        <v>-1.333333333333333</v>
+      </c>
+      <c r="V21" t="n">
+        <v>-0.7142857142857149</v>
+      </c>
+      <c r="W21" t="n">
+        <v>-0.2083333333333333</v>
+      </c>
+      <c r="X21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>(-0.8229658512369301, -0.7932528233662447)</t>
+        </is>
+      </c>
+      <c r="Z21" t="n">
+        <v>-1.042244642857143</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>-1.132093318965517</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>-0.43142</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>-0.43142</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1991,6 +2746,41 @@
       <c r="R22" t="n">
         <v>-0.2465577991452991</v>
       </c>
+      <c r="S22" t="n">
+        <v>-0.0126637769714285</v>
+      </c>
+      <c r="T22" t="n">
+        <v>-1.266266666666667</v>
+      </c>
+      <c r="U22" t="n">
+        <v>-0.1295062499999999</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.002494285714285727</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.1243077380952379</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0.5343291666666667</v>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>(-0.01643930852942598, -0.008888245413431028)</t>
+        </is>
+      </c>
+      <c r="Z22" t="n">
+        <v>-0.1646543779523809</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>1.728870968499999</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>-0.4672977</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>-0.246244155</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -2061,6 +2851,41 @@
       <c r="R23" t="n">
         <v>-0.2515424358974359</v>
       </c>
+      <c r="S23" t="n">
+        <v>-0.0439021560261904</v>
+      </c>
+      <c r="T23" t="n">
+        <v>-1.602711111111111</v>
+      </c>
+      <c r="U23" t="n">
+        <v>-0.1917093749999996</v>
+      </c>
+      <c r="V23" t="n">
+        <v>-0.01771428571428546</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0.1301000000000001</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0.7037777777777778</v>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>(-0.048777337501632455, -0.03902697455074835)</t>
+        </is>
+      </c>
+      <c r="Z23" t="n">
+        <v>-0.2011420734603174</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>-0.2184819073793103</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>-0.4617934</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>-0.2536649</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -2131,6 +2956,41 @@
       <c r="R24" t="n">
         <v>-0.2415366527822349</v>
       </c>
+      <c r="S24" t="n">
+        <v>-0.002394593319519097</v>
+      </c>
+      <c r="T24" t="n">
+        <v>-0.6835841228246162</v>
+      </c>
+      <c r="U24" t="n">
+        <v>-0.06335553328017446</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0.01713328354533106</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0.08205605440704458</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0.2614565698236948</v>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>(-0.004633995201045295, -0.00015519143799290003)</t>
+        </is>
+      </c>
+      <c r="Z24" t="n">
+        <v>-0.1535914818697897</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>1.612710559632792</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>-0.4776672581269664</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>-0.244527591996744</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -2201,6 +3061,41 @@
       <c r="R25" t="n">
         <v>-0.2413382823305467</v>
       </c>
+      <c r="S25" t="n">
+        <v>-0.001256010197796209</v>
+      </c>
+      <c r="T25" t="n">
+        <v>-0.690067873078849</v>
+      </c>
+      <c r="U25" t="n">
+        <v>-0.05976498387753187</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0.02018897362797134</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.08289787390142114</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0.2527449580664054</v>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>(-0.003469873737629138, 0.0009578533420367195)</t>
+        </is>
+      </c>
+      <c r="Z25" t="n">
+        <v>-0.1524538531513268</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>-0.165596426698855</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>-0.4775332994737305</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>-0.2442694958727258</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -2271,6 +3166,41 @@
       <c r="R26" t="n">
         <v>-0.6018741575425255</v>
       </c>
+      <c r="S26" t="n">
+        <v>-0.2286152748033006</v>
+      </c>
+      <c r="T26" t="n">
+        <v>-0.9746877091072035</v>
+      </c>
+      <c r="U26" t="n">
+        <v>-0.3949179165740148</v>
+      </c>
+      <c r="V26" t="n">
+        <v>-0.2315686844669913</v>
+      </c>
+      <c r="W26" t="n">
+        <v>-0.07631154042232702</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0.5504740742015892</v>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>(-0.23297395770912888, -0.22425659189747232)</t>
+        </is>
+      </c>
+      <c r="Z26" t="n">
+        <v>-2.001865663231776</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>21.01958946393365</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>-0.6578461308977227</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>-0.6047888442593649</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -2341,6 +3271,41 @@
       <c r="R27" t="n">
         <v>-0.5743351103615485</v>
       </c>
+      <c r="S27" t="n">
+        <v>-0.0001340599466552036</v>
+      </c>
+      <c r="T27" t="n">
+        <v>-0.09365486704550485</v>
+      </c>
+      <c r="U27" t="n">
+        <v>-0.01892911480681858</v>
+      </c>
+      <c r="V27" t="n">
+        <v>-0.0005586395376470099</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0.01768292583929598</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0.1229659433120324</v>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>(-0.0006714013650196775, 0.00040328147170927035)</t>
+        </is>
+      </c>
+      <c r="Z27" t="n">
+        <v>-1.852732458643159</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>-2.012450774043431</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>-0.5967453086752096</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>-0.5755324408270495</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -2412,6 +3377,41 @@
       <c r="R28" t="n">
         <v>-0.3629430142619135</v>
       </c>
+      <c r="S28" t="n">
+        <v>-1.180593389452427</v>
+      </c>
+      <c r="T28" t="n">
+        <v>-741.7583548761389</v>
+      </c>
+      <c r="U28" t="n">
+        <v>-0.5722487649302643</v>
+      </c>
+      <c r="V28" t="n">
+        <v>-0.2452133783428122</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0.002053585624758075</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0.8415844280124835</v>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>(-1.4041837166545652, -0.9570030622502887)</t>
+        </is>
+      </c>
+      <c r="Z28" t="n">
+        <v>-1.486982873991747</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>15.61332017691335</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>-0.5117956480109621</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>-0.5243295011056858</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -2483,6 +3483,41 @@
       <c r="R29" t="n">
         <v>-0.635879118275516</v>
       </c>
+      <c r="S29" t="n">
+        <v>-0.3490359661117987</v>
+      </c>
+      <c r="T29" t="n">
+        <v>-403.1195351821742</v>
+      </c>
+      <c r="U29" t="n">
+        <v>-0.2566363609332775</v>
+      </c>
+      <c r="V29" t="n">
+        <v>-0.07450317217769553</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0.0473474696758904</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0.6405044145882968</v>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>(-0.46416485791998663, -0.2339070743036108)</t>
+        </is>
+      </c>
+      <c r="Z29" t="n">
+        <v>-0.5469705332501842</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>-0.5941231654269243</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>-0.4923985753075296</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>-0.3288129749080944</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -2553,6 +3588,41 @@
       <c r="R30" t="n">
         <v>-0.3296985882884805</v>
       </c>
+      <c r="S30" t="n">
+        <v>-0.0198916726798305</v>
+      </c>
+      <c r="T30" t="n">
+        <v>-2.700887268885699</v>
+      </c>
+      <c r="U30" t="n">
+        <v>-0.004968912438285678</v>
+      </c>
+      <c r="V30" t="n">
+        <v>5.743787139472767e-05</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0.002723388231594015</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0.110855279248272</v>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>(-0.022981850013049667, -0.016801495346611326)</t>
+        </is>
+      </c>
+      <c r="Z30" t="n">
+        <v>-0.5263515836789747</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>5.526691628629234</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>-0.4306376730448912</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>-0.3350876187280243</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -2623,6 +3693,41 @@
       <c r="R31" t="n">
         <v>-0.3314917245034738</v>
       </c>
+      <c r="S31" t="n">
+        <v>-0.02152807337622586</v>
+      </c>
+      <c r="T31" t="n">
+        <v>-2.767845749993205</v>
+      </c>
+      <c r="U31" t="n">
+        <v>-0.000712823644191285</v>
+      </c>
+      <c r="V31" t="n">
+        <v>-0.0002340963845404165</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0.0001503732287327364</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0.1057367403361179</v>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>(-0.02516461991576223, -0.017891526836689486)</t>
+        </is>
+      </c>
+      <c r="Z31" t="n">
+        <v>-0.543732414391359</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>-0.5906058983906142</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>-0.4301729587478529</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>-0.338162271296479</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -2693,6 +3798,41 @@
       <c r="R32" t="n">
         <v>-0.8419704535789508</v>
       </c>
+      <c r="S32" t="n">
+        <v>-2.74640799873716</v>
+      </c>
+      <c r="T32" t="n">
+        <v>-28.87812455379746</v>
+      </c>
+      <c r="U32" t="n">
+        <v>-3.702859833946015</v>
+      </c>
+      <c r="V32" t="n">
+        <v>-2.269228337156559</v>
+      </c>
+      <c r="W32" t="n">
+        <v>-1.221016090075317</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0.781312161363569</v>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>(-2.7905942886508903, -2.702221708823429)</t>
+        </is>
+      </c>
+      <c r="Z32" t="n">
+        <v>-3.237461945310675</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>33.99335042576209</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>-0.72315872568985</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>-0.8885756404045302</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -2763,6 +3903,41 @@
       <c r="R33" t="n">
         <v>-0.6707085378167917</v>
       </c>
+      <c r="S33" t="n">
+        <v>-2.034325850017234</v>
+      </c>
+      <c r="T33" t="n">
+        <v>-26.47688760066317</v>
+      </c>
+      <c r="U33" t="n">
+        <v>-2.838409333544867</v>
+      </c>
+      <c r="V33" t="n">
+        <v>-1.65375025889453</v>
+      </c>
+      <c r="W33" t="n">
+        <v>-0.7900249050037282</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0.8863034402107761</v>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>(-2.0693283425123474, -1.9993233575221205)</t>
+        </is>
+      </c>
+      <c r="Z33" t="n">
+        <v>-2.436035047492715</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>-2.646038068828294</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>-0.6559233347152323</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>-0.7227122592213178</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -2833,6 +4008,41 @@
       <c r="R34" t="n">
         <v>-1.166205128205128</v>
       </c>
+      <c r="S34" t="n">
+        <v>-0.2951720037175183</v>
+      </c>
+      <c r="T34" t="n">
+        <v>-3.515555555555555</v>
+      </c>
+      <c r="U34" t="n">
+        <v>-0.4806815159574466</v>
+      </c>
+      <c r="V34" t="n">
+        <v>-0.2550495049504949</v>
+      </c>
+      <c r="W34" t="n">
+        <v>-0.0689805097451277</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0.5495000000000001</v>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>(-0.3016229730958921, -0.2887210343391446)</t>
+        </is>
+      </c>
+      <c r="Z34" t="n">
+        <v>-0.4982891773433215</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>5.232036362104876</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>-0.934034</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>-1.239082</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -2903,6 +4113,41 @@
       <c r="R35" t="n">
         <v>-1.164794871794872</v>
       </c>
+      <c r="S35" t="n">
+        <v>-0.2622584052561945</v>
+      </c>
+      <c r="T35" t="n">
+        <v>-3.217777777777777</v>
+      </c>
+      <c r="U35" t="n">
+        <v>-0.4336158415841586</v>
+      </c>
+      <c r="V35" t="n">
+        <v>-0.2159999999999997</v>
+      </c>
+      <c r="W35" t="n">
+        <v>-0.02911375661375654</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>(-0.2689266108141043, -0.25559019969828467)</t>
+        </is>
+      </c>
+      <c r="Z35" t="n">
+        <v>-0.4585894613654474</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>-0.4981230356210893</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>-0.927132</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>-1.20626</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -2973,6 +4218,41 @@
       <c r="R36" t="n">
         <v>-1.672649572649573</v>
       </c>
+      <c r="S36" t="n">
+        <v>-1.067786274459112</v>
+      </c>
+      <c r="T36" t="n">
+        <v>-15.55555555555556</v>
+      </c>
+      <c r="U36" t="n">
+        <v>-1.539140271493213</v>
+      </c>
+      <c r="V36" t="n">
+        <v>-0.9166666666666663</v>
+      </c>
+      <c r="W36" t="n">
+        <v>-0.3666149068322982</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0.8695652173913043</v>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>(-1.0878310772669009, -1.0477414716513236)</t>
+        </is>
+      </c>
+      <c r="Z36" t="n">
+        <v>-1.348547896905344</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>14.15975291750611</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>-1.04658</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>-1.8761</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -3043,6 +4323,41 @@
       <c r="R37" t="n">
         <v>-1.488461538461539</v>
       </c>
+      <c r="S37" t="n">
+        <v>-0.7171086837635977</v>
+      </c>
+      <c r="T37" t="n">
+        <v>-14.11111111111111</v>
+      </c>
+      <c r="U37" t="n">
+        <v>-1.160714285714286</v>
+      </c>
+      <c r="V37" t="n">
+        <v>-0.5619047619047617</v>
+      </c>
+      <c r="W37" t="n">
+        <v>-0.07317073170731736</v>
+      </c>
+      <c r="X37" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>(-0.7350843843535534, -0.699132983173642)</t>
+        </is>
+      </c>
+      <c r="Z37" t="n">
+        <v>-0.9479979127696674</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>-1.029721870767053</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>-0.92937</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>-1.56079</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -3113,6 +4428,41 @@
       <c r="R38" t="n">
         <v>-1.042185961538462</v>
       </c>
+      <c r="S38" t="n">
+        <v>-0.06578403185981438</v>
+      </c>
+      <c r="T38" t="n">
+        <v>-2.681288888888889</v>
+      </c>
+      <c r="U38" t="n">
+        <v>-0.189509925934454</v>
+      </c>
+      <c r="V38" t="n">
+        <v>-0.04048266064449979</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0.08711187789351862</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0.6842458333333334</v>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>(-0.07024155389073715, -0.06132650982889161)</t>
+        </is>
+      </c>
+      <c r="Z38" t="n">
+        <v>-0.2348568837918142</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>2.465997279814049</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>-0.845678</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>-1.035558956</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -3183,6 +4533,41 @@
       <c r="R39" t="n">
         <v>-1.020878888888889</v>
       </c>
+      <c r="S39" t="n">
+        <v>-0.08093007594328329</v>
+      </c>
+      <c r="T39" t="n">
+        <v>-3.426900000000001</v>
+      </c>
+      <c r="U39" t="n">
+        <v>-0.245235087441102</v>
+      </c>
+      <c r="V39" t="n">
+        <v>-0.03941110000000003</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0.12893775</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0.6937775510204082</v>
+      </c>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>(-0.08694617305485866, -0.07491397883170792)</t>
+        </is>
+      </c>
+      <c r="Z39" t="n">
+        <v>-0.2531398683269322</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>-0.274962270768909</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>-0.8432137999999999</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>-1.041878668</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -3253,6 +4638,41 @@
       <c r="R40" t="n">
         <v>-0.970341197462559</v>
       </c>
+      <c r="S40" t="n">
+        <v>-0.01532188386486006</v>
+      </c>
+      <c r="T40" t="n">
+        <v>-0.8218870302489338</v>
+      </c>
+      <c r="U40" t="n">
+        <v>-0.06614725689217321</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0.004800433897648504</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0.05604426597246298</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0.3439789215945858</v>
+      </c>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>(-0.017404519215758987, -0.013239248513961136)</t>
+        </is>
+      </c>
+      <c r="Z40" t="n">
+        <v>-0.1813806237797081</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>1.904496549686936</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>-0.8331531312003546</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>-0.9935801038699398</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -3323,6 +4743,41 @@
       <c r="R41" t="n">
         <v>-0.9673092636902729</v>
       </c>
+      <c r="S41" t="n">
+        <v>-0.0118290957235651</v>
+      </c>
+      <c r="T41" t="n">
+        <v>-0.815239673507796</v>
+      </c>
+      <c r="U41" t="n">
+        <v>-0.06286954708309661</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0.00848839385227701</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0.0581387854094467</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0.3406411478344199</v>
+      </c>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>(-0.013875943758694498, -0.009782247688435695)</t>
+        </is>
+      </c>
+      <c r="Z41" t="n">
+        <v>-0.1775193431382229</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>-0.1928227347880698</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>-0.8320049591938319</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>-0.9904915803743668</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -3393,6 +4848,41 @@
       <c r="R42" t="n">
         <v>-1.613173559398751</v>
       </c>
+      <c r="S42" t="n">
+        <v>0.003198402174481777</v>
+      </c>
+      <c r="T42" t="n">
+        <v>-1.205104606963535</v>
+      </c>
+      <c r="U42" t="n">
+        <v>-0.08574663202861499</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0.01325397861720001</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0.1070767987035597</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0.5286304383649432</v>
+      </c>
+      <c r="Y42" t="inlineStr">
+        <is>
+          <t>(0.000170303375318627, 0.006226500973644928)</t>
+        </is>
+      </c>
+      <c r="Z42" t="n">
+        <v>-0.9579892291567815</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>10.05888690614621</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>-1.043595529375021</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>-1.624838765017043</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -3463,6 +4953,41 @@
       <c r="R43" t="n">
         <v>-1.674759435303479</v>
       </c>
+      <c r="S43" t="n">
+        <v>-0.005016532271275477</v>
+      </c>
+      <c r="T43" t="n">
+        <v>-1.409971045968089</v>
+      </c>
+      <c r="U43" t="n">
+        <v>-0.1058449726277395</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0.00772537228695358</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0.1131313339111956</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0.5638057246973834</v>
+      </c>
+      <c r="Y43" t="inlineStr">
+        <is>
+          <t>(-0.008457146104787802, -0.0015759184377631512)</t>
+        </is>
+      </c>
+      <c r="Z43" t="n">
+        <v>-1.038702813603728</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>-1.12824615960405</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>-1.056693825653073</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>-1.687239261442395</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -3534,6 +5059,41 @@
       <c r="R44" t="n">
         <v>-1.68654286273047</v>
       </c>
+      <c r="S44" t="n">
+        <v>-1.001664572989818</v>
+      </c>
+      <c r="T44" t="n">
+        <v>-229.5364165108551</v>
+      </c>
+      <c r="U44" t="n">
+        <v>-0.7538656117769571</v>
+      </c>
+      <c r="V44" t="n">
+        <v>-0.3745159648447748</v>
+      </c>
+      <c r="W44" t="n">
+        <v>-0.1106927443387942</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0.666658034953542</v>
+      </c>
+      <c r="Y44" t="inlineStr">
+        <is>
+          <t>(-1.122483504737001, -0.8808456412426344)</t>
+        </is>
+      </c>
+      <c r="Z44" t="n">
+        <v>-1.308701309319773</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>13.74136374785762</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>-1.000754817351745</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>-1.861722236916893</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -3605,6 +5165,41 @@
       <c r="R45" t="n">
         <v>-1.191235304965466</v>
       </c>
+      <c r="S45" t="n">
+        <v>-1.00832437243593</v>
+      </c>
+      <c r="T45" t="n">
+        <v>-1178.952507196779</v>
+      </c>
+      <c r="U45" t="n">
+        <v>-0.3475816810051985</v>
+      </c>
+      <c r="V45" t="n">
+        <v>-0.1181986184555069</v>
+      </c>
+      <c r="W45" t="n">
+        <v>1.220192613615723e-08</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0.5722536976109893</v>
+      </c>
+      <c r="Y45" t="inlineStr">
+        <is>
+          <t>(-1.309267264892645, -0.7073814799792142)</t>
+        </is>
+      </c>
+      <c r="Z45" t="n">
+        <v>-1.310346496389321</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>-1.423307401250469</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>-0.9306230569285088</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>-1.844862830928892</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -3675,6 +5270,41 @@
       <c r="R46" t="n">
         <v>-0.9855540821557811</v>
       </c>
+      <c r="S46" t="n">
+        <v>-0.003745114271674032</v>
+      </c>
+      <c r="T46" t="n">
+        <v>-1.331496603676832</v>
+      </c>
+      <c r="U46" t="n">
+        <v>-0.02953382130265725</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0.00365918961289341</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0.02808216358542465</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0.3389964500292092</v>
+      </c>
+      <c r="Y46" t="inlineStr">
+        <is>
+          <t>(-0.005014262468397413, -0.002475966074950651)</t>
+        </is>
+      </c>
+      <c r="Z46" t="n">
+        <v>-0.1783969963101921</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>1.873168461257017</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>-0.8177001420742382</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>-1.001929106134425</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -3745,6 +5375,41 @@
       <c r="R47" t="n">
         <v>-0.9851864108450545</v>
       </c>
+      <c r="S47" t="n">
+        <v>0.0003587436240602136</v>
+      </c>
+      <c r="T47" t="n">
+        <v>-1.504351034434549</v>
+      </c>
+      <c r="U47" t="n">
+        <v>-0.02361467095948727</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0.00037825373576722</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0.03187832760233827</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0.2918598651522526</v>
+      </c>
+      <c r="Y47" t="inlineStr">
+        <is>
+          <t>(-0.000963140914869877, 0.0016806281629903042)</t>
+        </is>
+      </c>
+      <c r="Z47" t="n">
+        <v>-0.1759397473890147</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>-0.191106966991516</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>-0.8174615447328153</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>-1.000219212479041</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -3815,6 +5480,41 @@
       <c r="R48" t="n">
         <v>-3.802497606631023</v>
       </c>
+      <c r="S48" t="n">
+        <v>-2.895569914285634</v>
+      </c>
+      <c r="T48" t="n">
+        <v>-32.37662787113791</v>
+      </c>
+      <c r="U48" t="n">
+        <v>-3.829821955844084</v>
+      </c>
+      <c r="V48" t="n">
+        <v>-2.299361165460608</v>
+      </c>
+      <c r="W48" t="n">
+        <v>-1.264173347109437</v>
+      </c>
+      <c r="X48" t="n">
+        <v>0.7556729328445093</v>
+      </c>
+      <c r="Y48" t="inlineStr">
+        <is>
+          <t>(-2.9443327643504036, -2.8468070642208643)</t>
+        </is>
+      </c>
+      <c r="Z48" t="n">
+        <v>-3.404836381289272</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>35.75078200353736</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>-1.465811385073968</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>-3.442634738283485</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -3885,6 +5585,41 @@
       <c r="R49" t="n">
         <v>-3.633224185181028</v>
       </c>
+      <c r="S49" t="n">
+        <v>-3.064357865172206</v>
+      </c>
+      <c r="T49" t="n">
+        <v>-48.57265462480549</v>
+      </c>
+      <c r="U49" t="n">
+        <v>-3.975246102560599</v>
+      </c>
+      <c r="V49" t="n">
+        <v>-2.447818629958478</v>
+      </c>
+      <c r="W49" t="n">
+        <v>-1.381139858439863</v>
+      </c>
+      <c r="X49" t="n">
+        <v>0.5995005039742314</v>
+      </c>
+      <c r="Y49" t="inlineStr">
+        <is>
+          <t>(-3.116215577544462, -3.01250015279995)</t>
+        </is>
+      </c>
+      <c r="Z49" t="n">
+        <v>-3.594990448603599</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>-3.904903418310806</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>-1.49241015564553</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>-3.585611029649294</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -3955,6 +5690,41 @@
       <c r="R50" t="n">
         <v>-0.2757777777777778</v>
       </c>
+      <c r="S50" t="n">
+        <v>-0.1212819022222222</v>
+      </c>
+      <c r="T50" t="n">
+        <v>-1.351111111111112</v>
+      </c>
+      <c r="U50" t="n">
+        <v>-0.2725000000000002</v>
+      </c>
+      <c r="V50" t="n">
+        <v>-0.1024</v>
+      </c>
+      <c r="W50" t="n">
+        <v>0.05523809523809531</v>
+      </c>
+      <c r="X50" t="n">
+        <v>0.6100000000000001</v>
+      </c>
+      <c r="Y50" t="inlineStr">
+        <is>
+          <t>(-0.12625023329020357, -0.11631357115424089)</t>
+        </is>
+      </c>
+      <c r="Z50" t="n">
+        <v>-0.2873471174603176</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>3.017144733333335</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>-0.485038</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>-0.2780996000000001</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -4025,6 +5795,41 @@
       <c r="R51" t="n">
         <v>-0.2906495726495727</v>
       </c>
+      <c r="S51" t="n">
+        <v>-0.1587851490476191</v>
+      </c>
+      <c r="T51" t="n">
+        <v>-1.862222222222222</v>
+      </c>
+      <c r="U51" t="n">
+        <v>-0.3266666666666664</v>
+      </c>
+      <c r="V51" t="n">
+        <v>-0.1349999999999996</v>
+      </c>
+      <c r="W51" t="n">
+        <v>0.03360000000000019</v>
+      </c>
+      <c r="X51" t="n">
+        <v>0.6857142857142857</v>
+      </c>
+      <c r="Y51" t="inlineStr">
+        <is>
+          <t>(-0.16425888332165514, -0.15331141477358298)</t>
+        </is>
+      </c>
+      <c r="Z51" t="n">
+        <v>-0.3313476079365081</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>-0.3599120568965519</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>-0.490144</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>-0.2872328000000001</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -4095,6 +5900,41 @@
       <c r="R52" t="n">
         <v>-0.5399572649572649</v>
       </c>
+      <c r="S52" t="n">
+        <v>-1.042749908730159</v>
+      </c>
+      <c r="T52" t="n">
+        <v>-4</v>
+      </c>
+      <c r="U52" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>-1.041666666666667</v>
+      </c>
+      <c r="W52" t="n">
+        <v>-0.4999999999999998</v>
+      </c>
+      <c r="X52" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y52" t="inlineStr">
+        <is>
+          <t>(-1.0572340714589652, -1.028265746001352)</t>
+        </is>
+      </c>
+      <c r="Z52" t="n">
+        <v>-1.310593214285714</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>13.76122875</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>-0.4986099999999999</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>-0.4986099999999999</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -4165,6 +6005,41 @@
       <c r="R53" t="n">
         <v>-0.3297008547008548</v>
       </c>
+      <c r="S53" t="n">
+        <v>-0.3685969920634921</v>
+      </c>
+      <c r="T53" t="n">
+        <v>-4</v>
+      </c>
+      <c r="U53" t="n">
+        <v>-0.7142857142857149</v>
+      </c>
+      <c r="V53" t="n">
+        <v>-0.2083333333333333</v>
+      </c>
+      <c r="W53" t="n">
+        <v>0.1600000000000001</v>
+      </c>
+      <c r="X53" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y53" t="inlineStr">
+        <is>
+          <t>(-0.3821668512795081, -0.3550271328474761)</t>
+        </is>
+      </c>
+      <c r="Z53" t="n">
+        <v>-0.545608492063492</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>-0.5926437068965518</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>-0.33385</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>-0.33385</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -4235,6 +6110,41 @@
       <c r="R54" t="n">
         <v>-0.2632508547008547</v>
       </c>
+      <c r="S54" t="n">
+        <v>-0.08163496735476183</v>
+      </c>
+      <c r="T54" t="n">
+        <v>-1.153288888888888</v>
+      </c>
+      <c r="U54" t="n">
+        <v>-0.1963263333333333</v>
+      </c>
+      <c r="V54" t="n">
+        <v>-0.06575357142857152</v>
+      </c>
+      <c r="W54" t="n">
+        <v>0.04947083333333346</v>
+      </c>
+      <c r="X54" t="n">
+        <v>0.4579833333333333</v>
+      </c>
+      <c r="Y54" t="inlineStr">
+        <is>
+          <t>(-0.08536563795785115, -0.07790429675167251)</t>
+        </is>
+      </c>
+      <c r="Z54" t="n">
+        <v>-0.2444603686428571</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>2.566833870749999</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>-0.4949136000000001</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>-0.26873544</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -4305,6 +6215,41 @@
       <c r="R55" t="n">
         <v>-0.2354314102564102</v>
       </c>
+      <c r="S55" t="n">
+        <v>0.04962709439880959</v>
+      </c>
+      <c r="T55" t="n">
+        <v>-1.324844444444445</v>
+      </c>
+      <c r="U55" t="n">
+        <v>-0.1121809523809525</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0.07657628571428582</v>
+      </c>
+      <c r="W55" t="n">
+        <v>0.2404083333333336</v>
+      </c>
+      <c r="X55" t="n">
+        <v>0.7658240000000001</v>
+      </c>
+      <c r="Y55" t="inlineStr">
+        <is>
+          <t>(0.04433154858070836, 0.05492264021691081)</t>
+        </is>
+      </c>
+      <c r="Z55" t="n">
+        <v>-0.08839441970238092</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>-0.0960146282974137</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>-0.4285355000000001</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>-0.234937907</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -4375,6 +6320,41 @@
       <c r="R56" t="n">
         <v>-0.2498699647064661</v>
       </c>
+      <c r="S56" t="n">
+        <v>-0.02611504411985986</v>
+      </c>
+      <c r="T56" t="n">
+        <v>-0.5647341985164844</v>
+      </c>
+      <c r="U56" t="n">
+        <v>-0.06204213192278235</v>
+      </c>
+      <c r="V56" t="n">
+        <v>-0.01140289229031022</v>
+      </c>
+      <c r="W56" t="n">
+        <v>0.02432691939038947</v>
+      </c>
+      <c r="X56" t="n">
+        <v>0.1948205625734301</v>
+      </c>
+      <c r="Y56" t="inlineStr">
+        <is>
+          <t>(-0.027493826098434405, -0.02473626214128532)</t>
+        </is>
+      </c>
+      <c r="Z56" t="n">
+        <v>-0.1839780157611422</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>1.931769165491993</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>-0.4987281815892465</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>-0.2560036735375066</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -4445,6 +6425,41 @@
       <c r="R57" t="n">
         <v>-0.2476709283795015</v>
       </c>
+      <c r="S57" t="n">
+        <v>-0.01249742046744796</v>
+      </c>
+      <c r="T57" t="n">
+        <v>-0.2917277901081528</v>
+      </c>
+      <c r="U57" t="n">
+        <v>-0.02918986844643945</v>
+      </c>
+      <c r="V57" t="n">
+        <v>-0.001368634731469531</v>
+      </c>
+      <c r="W57" t="n">
+        <v>0.01431960399949694</v>
+      </c>
+      <c r="X57" t="n">
+        <v>0.1011936555153243</v>
+      </c>
+      <c r="Y57" t="inlineStr">
+        <is>
+          <t>(-0.013293789436677831, -0.01170105149821809)</t>
+        </is>
+      </c>
+      <c r="Z57" t="n">
+        <v>-0.1690814235092444</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>-0.1836574082945241</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>-0.4971658856050827</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>-0.2527467227258789</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -4515,6 +6530,41 @@
       <c r="R58" t="n">
         <v>-0.4297166095415629</v>
       </c>
+      <c r="S58" t="n">
+        <v>-0.08238580905177352</v>
+      </c>
+      <c r="T58" t="n">
+        <v>-1.015693692352145</v>
+      </c>
+      <c r="U58" t="n">
+        <v>-0.249214010043152</v>
+      </c>
+      <c r="V58" t="n">
+        <v>-0.07824698086722381</v>
+      </c>
+      <c r="W58" t="n">
+        <v>0.1028763697619932</v>
+      </c>
+      <c r="X58" t="n">
+        <v>0.5838716311891431</v>
+      </c>
+      <c r="Y58" t="inlineStr">
+        <is>
+          <t>(-0.0871848788048422, -0.07758673929870484)</t>
+        </is>
+      </c>
+      <c r="Z58" t="n">
+        <v>-1.135913720426863</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>11.92709406448206</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>-0.5699155683525028</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>-0.443626220445651</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -4585,6 +6635,41 @@
       <c r="R59" t="n">
         <v>-0.5757318278630883</v>
       </c>
+      <c r="S59" t="n">
+        <v>0.004943406905990731</v>
+      </c>
+      <c r="T59" t="n">
+        <v>-0.1081528812790948</v>
+      </c>
+      <c r="U59" t="n">
+        <v>-0.01704459172594736</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0.005703327841988848</v>
+      </c>
+      <c r="W59" t="n">
+        <v>0.02761327513375417</v>
+      </c>
+      <c r="X59" t="n">
+        <v>0.1261124373518783</v>
+      </c>
+      <c r="Y59" t="inlineStr">
+        <is>
+          <t>(0.004305784057297128, 0.0055810297546843345)</t>
+        </is>
+      </c>
+      <c r="Z59" t="n">
+        <v>-1.753736858703759</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>-1.90492107066098</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>-0.5810077336443955</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>-0.5762452561230204</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -4656,6 +6741,41 @@
       <c r="R60" t="n">
         <v>-0.3848293528779127</v>
       </c>
+      <c r="S60" t="n">
+        <v>-0.6723767528177891</v>
+      </c>
+      <c r="T60" t="n">
+        <v>-108.7849847208916</v>
+      </c>
+      <c r="U60" t="n">
+        <v>-0.6443585665397806</v>
+      </c>
+      <c r="V60" t="n">
+        <v>-0.316649938339731</v>
+      </c>
+      <c r="W60" t="n">
+        <v>-0.08149060772171618</v>
+      </c>
+      <c r="X60" t="n">
+        <v>0.7058801082580459</v>
+      </c>
+      <c r="Y60" t="inlineStr">
+        <is>
+          <t>(-0.7183677313342108, -0.6263857743013673)</t>
+        </is>
+      </c>
+      <c r="Z60" t="n">
+        <v>-0.9097594724199493</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>9.552474460409467</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>-0.5416400848921329</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>-0.4125197932392957</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -4727,6 +6847,41 @@
       <c r="R61" t="n">
         <v>-0.4216143778350944</v>
       </c>
+      <c r="S61" t="n">
+        <v>-0.642034769717475</v>
+      </c>
+      <c r="T61" t="n">
+        <v>-286.8987650439146</v>
+      </c>
+      <c r="U61" t="n">
+        <v>-0.3626907871246115</v>
+      </c>
+      <c r="V61" t="n">
+        <v>-0.1277771523482517</v>
+      </c>
+      <c r="W61" t="n">
+        <v>-0.01152405863841238</v>
+      </c>
+      <c r="X61" t="n">
+        <v>0.4643665988682976</v>
+      </c>
+      <c r="Y61" t="inlineStr">
+        <is>
+          <t>(-0.7558633378422549, -0.528206201592695)</t>
+        </is>
+      </c>
+      <c r="Z61" t="n">
+        <v>-0.8721135625269438</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>-0.9472957661930597</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>-0.5383155082810304</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>-0.4025651984688239</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -4797,6 +6952,41 @@
       <c r="R62" t="n">
         <v>-0.3611630566928727</v>
       </c>
+      <c r="S62" t="n">
+        <v>-0.1554765653005045</v>
+      </c>
+      <c r="T62" t="n">
+        <v>-2.735884324521163</v>
+      </c>
+      <c r="U62" t="n">
+        <v>-0.04162619474232765</v>
+      </c>
+      <c r="V62" t="n">
+        <v>-0.002314438234683802</v>
+      </c>
+      <c r="W62" t="n">
+        <v>0.0006303012530349261</v>
+      </c>
+      <c r="X62" t="n">
+        <v>0.3106910192411086</v>
+      </c>
+      <c r="Y62" t="inlineStr">
+        <is>
+          <t>(-0.16311210360926182, -0.14784102699174712)</t>
+        </is>
+      </c>
+      <c r="Z62" t="n">
+        <v>-0.7193874064938799</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>7.553567768185739</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>-0.4805137382543953</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>-0.3781565688842871</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -4867,6 +7057,41 @@
       <c r="R63" t="n">
         <v>-0.3556723367516449</v>
       </c>
+      <c r="S63" t="n">
+        <v>-0.002458216314608166</v>
+      </c>
+      <c r="T63" t="n">
+        <v>-0.2706239332457552</v>
+      </c>
+      <c r="U63" t="n">
+        <v>-0.00225622834489847</v>
+      </c>
+      <c r="V63" t="n">
+        <v>-0.000658334723486087</v>
+      </c>
+      <c r="W63" t="n">
+        <v>4.99841065693396e-05</v>
+      </c>
+      <c r="X63" t="n">
+        <v>0.04267006078750668</v>
+      </c>
+      <c r="Y63" t="inlineStr">
+        <is>
+          <t>(-0.0026111392446142765, -0.0023052933846020563)</t>
+        </is>
+      </c>
+      <c r="Z63" t="n">
+        <v>-0.5933328958682245</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>-0.6444822834430715</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>-0.4481405812876299</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>-0.3563396860668364</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -4937,6 +7162,41 @@
       <c r="R64" t="n">
         <v>-1.126094001612229</v>
       </c>
+      <c r="S64" t="n">
+        <v>-2.825599678335204</v>
+      </c>
+      <c r="T64" t="n">
+        <v>-25.97117507511735</v>
+      </c>
+      <c r="U64" t="n">
+        <v>-3.726809834799275</v>
+      </c>
+      <c r="V64" t="n">
+        <v>-2.444486947032357</v>
+      </c>
+      <c r="W64" t="n">
+        <v>-1.416144388872893</v>
+      </c>
+      <c r="X64" t="n">
+        <v>0.6951870234154699</v>
+      </c>
+      <c r="Y64" t="inlineStr">
+        <is>
+          <t>(-2.8655910659637467, -2.7856082907066604)</t>
+        </is>
+      </c>
+      <c r="Z64" t="n">
+        <v>-3.307274381591263</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>34.72638100670826</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>-0.7622715709482897</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>-0.9298609125068537</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -5007,6 +7267,41 @@
       <c r="R65" t="n">
         <v>-0.6237720625780018</v>
       </c>
+      <c r="S65" t="n">
+        <v>-1.590640068623765</v>
+      </c>
+      <c r="T65" t="n">
+        <v>-19.669735125191</v>
+      </c>
+      <c r="U65" t="n">
+        <v>-2.24896900563391</v>
+      </c>
+      <c r="V65" t="n">
+        <v>-1.286987090256712</v>
+      </c>
+      <c r="W65" t="n">
+        <v>-0.5494257371932587</v>
+      </c>
+      <c r="X65" t="n">
+        <v>0.8969508547875511</v>
+      </c>
+      <c r="Y65" t="inlineStr">
+        <is>
+          <t>(-1.620474514848873, -1.5608056223986568)</t>
+        </is>
+      </c>
+      <c r="Z65" t="n">
+        <v>-1.914022141787521</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>-2.079024050562307</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>-0.609548184047019</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>-0.628135663537549</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -5077,6 +7372,41 @@
       <c r="R66" t="n">
         <v>-15.78675213675214</v>
       </c>
+      <c r="S66" t="n">
+        <v>-0.2391665271086354</v>
+      </c>
+      <c r="T66" t="n">
+        <v>-4.601290322580645</v>
+      </c>
+      <c r="U66" t="n">
+        <v>-0.4282615939514845</v>
+      </c>
+      <c r="V66" t="n">
+        <v>-0.1669500448028677</v>
+      </c>
+      <c r="W66" t="n">
+        <v>0.04015500660883825</v>
+      </c>
+      <c r="X66" t="n">
+        <v>0.8063768115942029</v>
+      </c>
+      <c r="Y66" t="inlineStr">
+        <is>
+          <t>(-0.24758870636323294, -0.2307443478540378)</t>
+        </is>
+      </c>
+      <c r="Z66" t="n">
+        <v>-0.4242052480279542</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>4.454155104293519</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>-3.215724</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>-16.176224</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -5147,6 +7477,41 @@
       <c r="R67" t="n">
         <v>-15.12651282051282</v>
       </c>
+      <c r="S67" t="n">
+        <v>-0.1568598215989785</v>
+      </c>
+      <c r="T67" t="n">
+        <v>-3.734230769230769</v>
+      </c>
+      <c r="U67" t="n">
+        <v>-0.3416172508594852</v>
+      </c>
+      <c r="V67" t="n">
+        <v>-0.09159233088542118</v>
+      </c>
+      <c r="W67" t="n">
+        <v>0.09554500038461874</v>
+      </c>
+      <c r="X67" t="n">
+        <v>0.7455359246171966</v>
+      </c>
+      <c r="Y67" t="inlineStr">
+        <is>
+          <t>(-0.16422735790591517, -0.1494922852920418)</t>
+        </is>
+      </c>
+      <c r="Z67" t="n">
+        <v>-0.3275228239531509</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>-0.3557575501560089</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>-3.127734</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>-15.0250708</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -5217,6 +7582,41 @@
       <c r="R68" t="n">
         <v>-27.95705128205128</v>
       </c>
+      <c r="S68" t="n">
+        <v>-1.298587162531103</v>
+      </c>
+      <c r="T68" t="n">
+        <v>-29.0990099009901</v>
+      </c>
+      <c r="U68" t="n">
+        <v>-1.784539332727709</v>
+      </c>
+      <c r="V68" t="n">
+        <v>-1.061615213461271</v>
+      </c>
+      <c r="W68" t="n">
+        <v>-0.5144249653178223</v>
+      </c>
+      <c r="X68" t="n">
+        <v>0.8435374149659864</v>
+      </c>
+      <c r="Y68" t="inlineStr">
+        <is>
+          <t>(-1.3233521785545839, -1.2738221465076225)</t>
+        </is>
+      </c>
+      <c r="Z68" t="n">
+        <v>-1.617933627071074</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>16.98830308424627</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>-4.24008</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>-27.80654</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -5287,6 +7687,41 @@
       <c r="R69" t="n">
         <v>-24.3568376068376</v>
       </c>
+      <c r="S69" t="n">
+        <v>-0.8252145703383811</v>
+      </c>
+      <c r="T69" t="n">
+        <v>-21.84615384615385</v>
+      </c>
+      <c r="U69" t="n">
+        <v>-1.261747673150966</v>
+      </c>
+      <c r="V69" t="n">
+        <v>-0.6278480291638181</v>
+      </c>
+      <c r="W69" t="n">
+        <v>-0.1378809536899592</v>
+      </c>
+      <c r="X69" t="n">
+        <v>0.9083333333333333</v>
+      </c>
+      <c r="Y69" t="inlineStr">
+        <is>
+          <t>(-0.8458330809834833, -0.8045960596932789)</t>
+        </is>
+      </c>
+      <c r="Z69" t="n">
+        <v>-1.071979887959413</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>-1.164391947266259</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>-3.67417</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>-22.25501</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -5357,6 +7792,41 @@
       <c r="R70" t="n">
         <v>-14.67768527777778</v>
       </c>
+      <c r="S70" t="n">
+        <v>-0.1108887094000334</v>
+      </c>
+      <c r="T70" t="n">
+        <v>-2.9176625</v>
+      </c>
+      <c r="U70" t="n">
+        <v>-0.2137357987234196</v>
+      </c>
+      <c r="V70" t="n">
+        <v>-0.08954957555413789</v>
+      </c>
+      <c r="W70" t="n">
+        <v>0.019931696849769</v>
+      </c>
+      <c r="X70" t="n">
+        <v>0.5009637522768671</v>
+      </c>
+      <c r="Y70" t="inlineStr">
+        <is>
+          <t>(-0.11472153905609707, -0.10705587974396964)</t>
+        </is>
+      </c>
+      <c r="Z70" t="n">
+        <v>-0.286126360772267</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>3.004326788108803</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>-3.1382089</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>-14.794397495</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -5427,6 +7897,41 @@
       <c r="R71" t="n">
         <v>-11.75473068376068</v>
       </c>
+      <c r="S71" t="n">
+        <v>0.1033272067315046</v>
+      </c>
+      <c r="T71" t="n">
+        <v>-2.409657692307693</v>
+      </c>
+      <c r="U71" t="n">
+        <v>-0.01204368216913804</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0.1349588820125915</v>
+      </c>
+      <c r="W71" t="n">
+        <v>0.2632150510580709</v>
+      </c>
+      <c r="X71" t="n">
+        <v>0.7280075443786982</v>
+      </c>
+      <c r="Y71" t="inlineStr">
+        <is>
+          <t>(0.0985371894764009, 0.10811722398660824)</t>
+        </is>
+      </c>
+      <c r="Z71" t="n">
+        <v>-0.03398734800951264</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>-0.03691729180343617</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>-2.7904399</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>-11.789961049</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -5497,6 +8002,41 @@
       <c r="R72" t="n">
         <v>-13.27235549485649</v>
       </c>
+      <c r="S72" t="n">
+        <v>-0.006007505409400924</v>
+      </c>
+      <c r="T72" t="n">
+        <v>-1.048699108052537</v>
+      </c>
+      <c r="U72" t="n">
+        <v>-0.07622801352443931</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0.02008163967888765</v>
+      </c>
+      <c r="W72" t="n">
+        <v>0.09381754658647429</v>
+      </c>
+      <c r="X72" t="n">
+        <v>0.4313691492727383</v>
+      </c>
+      <c r="Y72" t="inlineStr">
+        <is>
+          <t>(-0.008787921932021594, -0.0032270888867802524)</t>
+        </is>
+      </c>
+      <c r="Z72" t="n">
+        <v>-0.1669788202276514</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>1.75327761239034</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>-3.032989042393369</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>-13.41143718622117</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -5567,6 +8107,41 @@
       <c r="R73" t="n">
         <v>-13.40148086883317</v>
       </c>
+      <c r="S73" t="n">
+        <v>-0.0002243086798221232</v>
+      </c>
+      <c r="T73" t="n">
+        <v>-0.1362336249049718</v>
+      </c>
+      <c r="U73" t="n">
+        <v>-0.007853557588523352</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0.003182228305599888</v>
+      </c>
+      <c r="W73" t="n">
+        <v>0.01055170015185389</v>
+      </c>
+      <c r="X73" t="n">
+        <v>0.115578311370148</v>
+      </c>
+      <c r="Y73" t="inlineStr">
+        <is>
+          <t>(-0.0005745831729435872, 0.0001259658132993408)</t>
+        </is>
+      </c>
+      <c r="Z73" t="n">
+        <v>-0.1619311795703909</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>-0.1758907640161143</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>-3.019216813044593</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>-13.47734037919744</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -5637,6 +8212,41 @@
       <c r="R74" t="n">
         <v>-24.00410188046819</v>
       </c>
+      <c r="S74" t="n">
+        <v>-0.05081056538131338</v>
+      </c>
+      <c r="T74" t="n">
+        <v>-0.480796063014431</v>
+      </c>
+      <c r="U74" t="n">
+        <v>-0.102085460345791</v>
+      </c>
+      <c r="V74" t="n">
+        <v>-0.05239628431472954</v>
+      </c>
+      <c r="W74" t="n">
+        <v>-0.00128883675979069</v>
+      </c>
+      <c r="X74" t="n">
+        <v>0.3162848702408826</v>
+      </c>
+      <c r="Y74" t="inlineStr">
+        <is>
+          <t>(-0.052246473319542526, -0.04937465744308423)</t>
+        </is>
+      </c>
+      <c r="Z74" t="n">
+        <v>-1.134420032590977</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>11.91141034220526</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>-3.854724507868659</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>-24.18914064041547</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -5707,6 +8317,41 @@
       <c r="R75" t="n">
         <v>-25.98257210942825</v>
       </c>
+      <c r="S75" t="n">
+        <v>-0.05360042790262472</v>
+      </c>
+      <c r="T75" t="n">
+        <v>-0.454075332845556</v>
+      </c>
+      <c r="U75" t="n">
+        <v>-0.1072786371046506</v>
+      </c>
+      <c r="V75" t="n">
+        <v>-0.05510729242745938</v>
+      </c>
+      <c r="W75" t="n">
+        <v>-0.0008551219524435827</v>
+      </c>
+      <c r="X75" t="n">
+        <v>0.3209070884579154</v>
+      </c>
+      <c r="Y75" t="inlineStr">
+        <is>
+          <t>(-0.05511017094794601, -0.052090684857303435)</t>
+        </is>
+      </c>
+      <c r="Z75" t="n">
+        <v>-1.354616433910093</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>-1.471393712695446</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>-4.080997606267388</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>-26.32671626158674</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -5778,6 +8423,41 @@
       <c r="R76" t="n">
         <v>-13.38831259406492</v>
       </c>
+      <c r="S76" t="n">
+        <v>-0.001122266323307447</v>
+      </c>
+      <c r="T76" t="n">
+        <v>-2.816640281007707</v>
+      </c>
+      <c r="U76" t="n">
+        <v>-3.496793324342384e-06</v>
+      </c>
+      <c r="V76" t="n">
+        <v>-1.101157490634996e-06</v>
+      </c>
+      <c r="W76" t="n">
+        <v>4.673043997316384e-07</v>
+      </c>
+      <c r="X76" t="n">
+        <v>0.1944213017453837</v>
+      </c>
+      <c r="Y76" t="inlineStr">
+        <is>
+          <t>(-0.0019239953274517475, -0.00032053731916314705)</t>
+        </is>
+      </c>
+      <c r="Z76" t="n">
+        <v>-0.162603752797674</v>
+      </c>
+      <c r="AA76" t="n">
+        <v>1.707339404375577</v>
+      </c>
+      <c r="AB76" t="n">
+        <v>-3.023545021364931</v>
+      </c>
+      <c r="AC76" t="n">
+        <v>-13.48733290113229</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -5849,6 +8529,41 @@
       <c r="R77" t="n">
         <v>-13.38832523055456</v>
       </c>
+      <c r="S77" t="n">
+        <v>-2.58823346790914e-06</v>
+      </c>
+      <c r="T77" t="n">
+        <v>-7.130672563837592e-05</v>
+      </c>
+      <c r="U77" t="n">
+        <v>-3.959680986487246e-06</v>
+      </c>
+      <c r="V77" t="n">
+        <v>-6.94175606552605e-07</v>
+      </c>
+      <c r="W77" t="n">
+        <v>1.393856498554946e-07</v>
+      </c>
+      <c r="X77" t="n">
+        <v>5.400912986286421e-05</v>
+      </c>
+      <c r="Y77" t="inlineStr">
+        <is>
+          <t>(-2.7462289901369678e-06, -2.430237945681312e-06)</t>
+        </is>
+      </c>
+      <c r="Z77" t="n">
+        <v>-0.1614437517224445</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>-0.1753613165261034</v>
+      </c>
+      <c r="AB77" t="n">
+        <v>-3.0226081565729</v>
+      </c>
+      <c r="AC77" t="n">
+        <v>-13.47184379565426</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -5919,6 +8634,41 @@
       <c r="R78" t="n">
         <v>-13.16709504028614</v>
       </c>
+      <c r="S78" t="n">
+        <v>0.01364294288321267</v>
+      </c>
+      <c r="T78" t="n">
+        <v>-0.7413723636695024</v>
+      </c>
+      <c r="U78" t="n">
+        <v>-0.03456370073547216</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0.02838842448179557</v>
+      </c>
+      <c r="W78" t="n">
+        <v>0.08023418875364011</v>
+      </c>
+      <c r="X78" t="n">
+        <v>0.3139769625842329</v>
+      </c>
+      <c r="Y78" t="inlineStr">
+        <is>
+          <t>(0.011758658715231117, 0.015527227051194215)</t>
+        </is>
+      </c>
+      <c r="Z78" t="n">
+        <v>-0.1492716236707446</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>1.567352048542818</v>
+      </c>
+      <c r="AB78" t="n">
+        <v>-2.995993361383643</v>
+      </c>
+      <c r="AC78" t="n">
+        <v>-13.33630707613941</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -5989,6 +8739,41 @@
       <c r="R79" t="n">
         <v>-13.47601450987462</v>
       </c>
+      <c r="S79" t="n">
+        <v>0.006203836730995987</v>
+      </c>
+      <c r="T79" t="n">
+        <v>-0.6232893799098091</v>
+      </c>
+      <c r="U79" t="n">
+        <v>-0.03471818457686521</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0.01312708793260142</v>
+      </c>
+      <c r="W79" t="n">
+        <v>0.05527634409480026</v>
+      </c>
+      <c r="X79" t="n">
+        <v>0.4114805190320009</v>
+      </c>
+      <c r="Y79" t="inlineStr">
+        <is>
+          <t>(0.004687666885345649, 0.007720006576646324)</t>
+        </is>
+      </c>
+      <c r="Z79" t="n">
+        <v>-0.1559994753570179</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>-0.1694477059912436</v>
+      </c>
+      <c r="AB79" t="n">
+        <v>-2.978289073571589</v>
+      </c>
+      <c r="AC79" t="n">
+        <v>-13.49649182021413</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -6059,6 +8844,41 @@
       <c r="R80" t="n">
         <v>-53.90051165840832</v>
       </c>
+      <c r="S80" t="n">
+        <v>-3.437460550531129</v>
+      </c>
+      <c r="T80" t="n">
+        <v>-57.10167012024935</v>
+      </c>
+      <c r="U80" t="n">
+        <v>-4.483668280979511</v>
+      </c>
+      <c r="V80" t="n">
+        <v>-2.64303601041333</v>
+      </c>
+      <c r="W80" t="n">
+        <v>-1.435951449255952</v>
+      </c>
+      <c r="X80" t="n">
+        <v>0.7205763979405052</v>
+      </c>
+      <c r="Y80" t="inlineStr">
+        <is>
+          <t>(-3.5001267733397214, -3.374794327722537)</t>
+        </is>
+      </c>
+      <c r="Z80" t="n">
+        <v>-4.003015133673765</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>42.03165890357453</v>
+      </c>
+      <c r="AB80" t="n">
+        <v>-5.628677261235059</v>
+      </c>
+      <c r="AC80" t="n">
+        <v>-51.14953845606765</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -6128,6 +8948,41 @@
       </c>
       <c r="R81" t="n">
         <v>-34.06879126695325</v>
+      </c>
+      <c r="S81" t="n">
+        <v>-2.141681269195971</v>
+      </c>
+      <c r="T81" t="n">
+        <v>-41.23396801442342</v>
+      </c>
+      <c r="U81" t="n">
+        <v>-2.893863605344861</v>
+      </c>
+      <c r="V81" t="n">
+        <v>-1.589368617808548</v>
+      </c>
+      <c r="W81" t="n">
+        <v>-0.7240246528022936</v>
+      </c>
+      <c r="X81" t="n">
+        <v>0.9253375831970571</v>
+      </c>
+      <c r="Y81" t="inlineStr">
+        <is>
+          <t>(-2.18726258372823, -2.0960999546637122)</t>
+        </is>
+      </c>
+      <c r="Z81" t="n">
+        <v>-2.544381290223596</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>-2.763724504898045</v>
+      </c>
+      <c r="AB81" t="n">
+        <v>-4.741248168970849</v>
+      </c>
+      <c r="AC81" t="n">
+        <v>-37.06633134431752</v>
       </c>
     </row>
   </sheetData>
